--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Aug.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Aug.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August 2024" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="August 2024" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,6 +518,358 @@
         <v>3160</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Item 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>47171</v>
+      </c>
+      <c r="C6" t="n">
+        <v>21850</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13437</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Item 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3767</v>
+      </c>
+      <c r="C7" t="n">
+        <v>29517</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30268</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>31184</v>
+      </c>
+      <c r="C8" t="n">
+        <v>18000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>26541</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>26372</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48269</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6695</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5764</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31265</v>
+      </c>
+      <c r="D10" t="n">
+        <v>45614</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>41259</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5984</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21374</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>34454</v>
+      </c>
+      <c r="C12" t="n">
+        <v>26899</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17645</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>26440</v>
+      </c>
+      <c r="C13" t="n">
+        <v>14182</v>
+      </c>
+      <c r="D13" t="n">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>12203</v>
+      </c>
+      <c r="C14" t="n">
+        <v>45901</v>
+      </c>
+      <c r="D14" t="n">
+        <v>14289</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>29844</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45242</v>
+      </c>
+      <c r="D15" t="n">
+        <v>13913</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>45966</v>
+      </c>
+      <c r="C16" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D16" t="n">
+        <v>6735</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>35106</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20117</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2481</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>42073</v>
+      </c>
+      <c r="C18" t="n">
+        <v>43785</v>
+      </c>
+      <c r="D18" t="n">
+        <v>46907</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>48361</v>
+      </c>
+      <c r="C19" t="n">
+        <v>34214</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>34764</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4022</v>
+      </c>
+      <c r="D20" t="n">
+        <v>41293</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>10302</v>
+      </c>
+      <c r="C21" t="n">
+        <v>38660</v>
+      </c>
+      <c r="D21" t="n">
+        <v>37583</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7560</v>
+      </c>
+      <c r="C22" t="n">
+        <v>17489</v>
+      </c>
+      <c r="D22" t="n">
+        <v>14470</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>40876</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28980</v>
+      </c>
+      <c r="D23" t="n">
+        <v>42426</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4594</v>
+      </c>
+      <c r="C24" t="n">
+        <v>21756</v>
+      </c>
+      <c r="D24" t="n">
+        <v>14393</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>46704</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19656</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25650</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>36506</v>
+      </c>
+      <c r="C26" t="n">
+        <v>18333</v>
+      </c>
+      <c r="D26" t="n">
+        <v>18240</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16708</v>
+      </c>
+      <c r="C27" t="n">
+        <v>19038</v>
+      </c>
+      <c r="D27" t="n">
+        <v>29571</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Aug.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/12_BUDGET_TRACKING/Monthly_Financial_Summary_Aug.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,438 @@
         <v>29571</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>32245</v>
+      </c>
+      <c r="C28" t="n">
+        <v>21032</v>
+      </c>
+      <c r="D28" t="n">
+        <v>14839</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>22702</v>
+      </c>
+      <c r="C29" t="n">
+        <v>31980</v>
+      </c>
+      <c r="D29" t="n">
+        <v>46187</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>7334</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47312</v>
+      </c>
+      <c r="D30" t="n">
+        <v>46076</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>33742</v>
+      </c>
+      <c r="C31" t="n">
+        <v>14318</v>
+      </c>
+      <c r="D31" t="n">
+        <v>19747</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>18995</v>
+      </c>
+      <c r="C32" t="n">
+        <v>23835</v>
+      </c>
+      <c r="D32" t="n">
+        <v>16184</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7643</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30886</v>
+      </c>
+      <c r="D33" t="n">
+        <v>22209</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>14260</v>
+      </c>
+      <c r="C34" t="n">
+        <v>13165</v>
+      </c>
+      <c r="D34" t="n">
+        <v>34547</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>49182</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20287</v>
+      </c>
+      <c r="D35" t="n">
+        <v>21263</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>48134</v>
+      </c>
+      <c r="C36" t="n">
+        <v>42742</v>
+      </c>
+      <c r="D36" t="n">
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>23129</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35222</v>
+      </c>
+      <c r="D37" t="n">
+        <v>24498</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Item 37</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>48922</v>
+      </c>
+      <c r="C38" t="n">
+        <v>4910</v>
+      </c>
+      <c r="D38" t="n">
+        <v>35043</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Item 38</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>13818</v>
+      </c>
+      <c r="C39" t="n">
+        <v>11172</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37406</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Item 39</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>47192</v>
+      </c>
+      <c r="C40" t="n">
+        <v>13515</v>
+      </c>
+      <c r="D40" t="n">
+        <v>19412</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Item 40</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>13436</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9384</v>
+      </c>
+      <c r="D41" t="n">
+        <v>32139</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Item 41</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>7948</v>
+      </c>
+      <c r="C42" t="n">
+        <v>36523</v>
+      </c>
+      <c r="D42" t="n">
+        <v>10190</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Item 42</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>35449</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14214</v>
+      </c>
+      <c r="D43" t="n">
+        <v>29652</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Item 43</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>28748</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9698</v>
+      </c>
+      <c r="D44" t="n">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Item 44</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>20972</v>
+      </c>
+      <c r="C45" t="n">
+        <v>21868</v>
+      </c>
+      <c r="D45" t="n">
+        <v>10664</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Item 45</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>41945</v>
+      </c>
+      <c r="C46" t="n">
+        <v>10905</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7571</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Item 46</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>32396</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1654</v>
+      </c>
+      <c r="D47" t="n">
+        <v>17621</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Item 47</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>31313</v>
+      </c>
+      <c r="C48" t="n">
+        <v>12598</v>
+      </c>
+      <c r="D48" t="n">
+        <v>12043</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Item 48</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>3856</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1097</v>
+      </c>
+      <c r="D49" t="n">
+        <v>23289</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Item 49</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9847</v>
+      </c>
+      <c r="C50" t="n">
+        <v>27226</v>
+      </c>
+      <c r="D50" t="n">
+        <v>40341</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Item 50</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>23524</v>
+      </c>
+      <c r="C51" t="n">
+        <v>30970</v>
+      </c>
+      <c r="D51" t="n">
+        <v>43806</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Item 51</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>42128</v>
+      </c>
+      <c r="C52" t="n">
+        <v>14345</v>
+      </c>
+      <c r="D52" t="n">
+        <v>19808</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Item 52</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>47044</v>
+      </c>
+      <c r="C53" t="n">
+        <v>38486</v>
+      </c>
+      <c r="D53" t="n">
+        <v>31622</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Item 53</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>23935</v>
+      </c>
+      <c r="C54" t="n">
+        <v>16236</v>
+      </c>
+      <c r="D54" t="n">
+        <v>20913</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
